--- a/Excel-第X期制造XX公司纳税申报表-新五险一金比率22.11.13.xlsx
+++ b/Excel-第X期制造XX公司纳税申报表-新五险一金比率22.11.13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\个人资料\工作\V创课程资料\卞进宇材料\22年秋季九批\税务局文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://openwisdom-my.sharepoint.com/personal/lfjingt_openwisdom_onmicrosoft_com/Documents/桌面/V创/税务局/测试/Tax_coming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FDDCB6-2D50-4DD9-BC9C-3F60B274EF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{84FDDCB6-2D50-4DD9-BC9C-3F60B274EF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6327229E-E56C-4C5B-8F32-21D358381290}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" tabRatio="910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="590" yWindow="2330" windowWidth="21150" windowHeight="12730" tabRatio="910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总表" sheetId="7" r:id="rId1"/>
@@ -407,6 +407,7 @@
 进项税按发票统计！！！
 进项税只采集专用发票，因为普通发票无法抵扣销项税额，只有专项发票才能抵扣进项税额。
 销项税额普通发票和专用发票都要采集。</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -431,6 +432,7 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -438,11 +440,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -450,6 +454,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -458,6 +463,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -465,6 +471,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -472,6 +479,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -479,6 +487,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -486,18 +495,21 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1516,19 +1528,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.61328125" customWidth="1"/>
-    <col min="2" max="2" width="17.3046875" customWidth="1"/>
-    <col min="3" max="4" width="21.4609375" customWidth="1"/>
-    <col min="5" max="5" width="18.69140625" customWidth="1"/>
+    <col min="1" max="1" width="9.6328125" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="3" max="4" width="21.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.15">
+    <row r="1" spans="1:5" ht="14">
       <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
@@ -1537,14 +1549,14 @@
       <c r="D1" s="60"/>
       <c r="E1" s="60"/>
     </row>
-    <row r="2" spans="1:5" ht="14.15">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="61"/>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
       <c r="E2" s="62"/>
     </row>
-    <row r="3" spans="1:5" ht="14.15">
+    <row r="3" spans="1:5" ht="14">
       <c r="A3" s="64" t="s">
         <v>1</v>
       </c>
@@ -1561,7 +1573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.15">
+    <row r="4" spans="1:5" ht="14">
       <c r="A4" s="65"/>
       <c r="B4" s="65"/>
       <c r="C4" s="65"/>
@@ -1655,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="44.05" customHeight="1">
+    <row r="11" spans="1:5" ht="44" customHeight="1">
       <c r="A11" s="63" t="s">
         <v>6</v>
       </c>
@@ -1688,13 +1700,13 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="32.3046875" customWidth="1"/>
-    <col min="3" max="3" width="16.765625" customWidth="1"/>
-    <col min="4" max="4" width="13.69140625" customWidth="1"/>
-    <col min="5" max="5" width="14.765625" customWidth="1"/>
+    <col min="2" max="2" width="32.26953125" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" customHeight="1">
@@ -1706,7 +1718,7 @@
       <c r="D1" s="82"/>
       <c r="E1" s="82"/>
     </row>
-    <row r="2" spans="1:5" ht="23.05" customHeight="1">
+    <row r="2" spans="1:5" ht="23" customHeight="1">
       <c r="A2" s="83" t="s">
         <v>8</v>
       </c>
@@ -1715,7 +1727,7 @@
       <c r="D2" s="83"/>
       <c r="E2" s="83"/>
     </row>
-    <row r="3" spans="1:5" ht="32.049999999999997" customHeight="1">
+    <row r="3" spans="1:5" ht="32" customHeight="1">
       <c r="A3" s="84" t="s">
         <v>9</v>
       </c>
@@ -1860,7 +1872,7 @@
       <c r="D15" s="45"/>
       <c r="E15" s="45"/>
     </row>
-    <row r="16" spans="1:5" ht="20.149999999999999">
+    <row r="16" spans="1:5" ht="21">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -1901,13 +1913,13 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="7.3046875" customWidth="1"/>
-    <col min="2" max="2" width="33.07421875" customWidth="1"/>
-    <col min="3" max="3" width="8.69140625" customWidth="1"/>
+    <col min="1" max="1" width="7.26953125" customWidth="1"/>
+    <col min="2" max="2" width="33.08984375" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="59.4609375" customWidth="1"/>
+    <col min="5" max="5" width="59.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
@@ -1918,13 +1930,13 @@
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
     </row>
-    <row r="2" spans="1:6" ht="20.149999999999999">
+    <row r="2" spans="1:6" ht="21">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
     </row>
-    <row r="3" spans="1:6" ht="18.45">
+    <row r="3" spans="1:6" ht="17.5">
       <c r="A3" s="88" t="s">
         <v>31</v>
       </c>
@@ -1933,7 +1945,7 @@
       <c r="D3" s="88"/>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="1:6" ht="20.149999999999999">
+    <row r="4" spans="1:6" ht="21">
       <c r="A4" s="29" t="s">
         <v>32</v>
       </c>
@@ -1951,7 +1963,7 @@
       </c>
       <c r="F4" s="32"/>
     </row>
-    <row r="5" spans="1:6" ht="20.149999999999999">
+    <row r="5" spans="1:6" ht="21">
       <c r="A5" s="33">
         <v>1</v>
       </c>
@@ -1965,7 +1977,7 @@
       </c>
       <c r="F5" s="32"/>
     </row>
-    <row r="6" spans="1:6" ht="20.149999999999999">
+    <row r="6" spans="1:6" ht="21">
       <c r="A6" s="33">
         <v>2</v>
       </c>
@@ -1979,7 +1991,7 @@
       </c>
       <c r="F6" s="32"/>
     </row>
-    <row r="7" spans="1:6" ht="20.149999999999999">
+    <row r="7" spans="1:6" ht="21">
       <c r="A7" s="33">
         <v>3</v>
       </c>
@@ -1993,7 +2005,7 @@
       </c>
       <c r="F7" s="32"/>
     </row>
-    <row r="8" spans="1:6" ht="20.149999999999999">
+    <row r="8" spans="1:6" ht="21">
       <c r="A8" s="33">
         <v>4</v>
       </c>
@@ -2007,7 +2019,7 @@
       </c>
       <c r="F8" s="32"/>
     </row>
-    <row r="9" spans="1:6" ht="20.149999999999999">
+    <row r="9" spans="1:6" ht="21">
       <c r="A9" s="33">
         <v>5</v>
       </c>
@@ -2021,7 +2033,7 @@
       </c>
       <c r="F9" s="32"/>
     </row>
-    <row r="10" spans="1:6" ht="20.149999999999999">
+    <row r="10" spans="1:6" ht="21">
       <c r="A10" s="33">
         <v>6</v>
       </c>
@@ -2035,7 +2047,7 @@
       </c>
       <c r="F10" s="32"/>
     </row>
-    <row r="11" spans="1:6" ht="20.149999999999999">
+    <row r="11" spans="1:6" ht="21">
       <c r="A11" s="33">
         <v>7</v>
       </c>
@@ -2049,7 +2061,7 @@
       </c>
       <c r="F11" s="32"/>
     </row>
-    <row r="12" spans="1:6" ht="20.149999999999999">
+    <row r="12" spans="1:6" ht="21">
       <c r="A12" s="33">
         <v>8</v>
       </c>
@@ -2063,7 +2075,7 @@
       </c>
       <c r="F12" s="32"/>
     </row>
-    <row r="13" spans="1:6" ht="20.149999999999999">
+    <row r="13" spans="1:6" ht="21">
       <c r="A13" s="33">
         <v>9</v>
       </c>
@@ -2077,7 +2089,7 @@
       </c>
       <c r="F13" s="32"/>
     </row>
-    <row r="14" spans="1:6" ht="20.149999999999999">
+    <row r="14" spans="1:6" ht="21">
       <c r="A14" s="33">
         <v>10</v>
       </c>
@@ -2100,14 +2112,14 @@
       <c r="D15" s="36"/>
       <c r="E15" s="36"/>
     </row>
-    <row r="16" spans="1:6" ht="18.45">
+    <row r="16" spans="1:6" ht="17.5">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
     </row>
-    <row r="17" spans="2:5" ht="18.45">
+    <row r="17" spans="2:5" ht="17.5">
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
@@ -2128,587 +2140,587 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:G17"/>
+      <selection activeCell="A20" sqref="A20:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.765625" style="50" customWidth="1"/>
-    <col min="2" max="2" width="30.53515625" style="50" customWidth="1"/>
-    <col min="3" max="3" width="17.53515625" style="50" customWidth="1"/>
-    <col min="4" max="4" width="9.84375" style="50" customWidth="1"/>
-    <col min="5" max="5" width="15.07421875" style="50" customWidth="1"/>
-    <col min="6" max="6" width="13.23046875" style="50" customWidth="1"/>
-    <col min="7" max="7" width="23.3046875" style="50" customWidth="1"/>
-    <col min="8" max="8" width="6.3046875" style="50" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="50" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" style="50" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="50" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="50" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" style="50" customWidth="1"/>
+    <col min="7" max="7" width="23.26953125" style="50" customWidth="1"/>
+    <col min="8" max="8" width="6.26953125" style="50" customWidth="1"/>
     <col min="9" max="9" width="9" style="51"/>
     <col min="10" max="256" width="9" style="50"/>
-    <col min="257" max="257" width="14.07421875" style="50" customWidth="1"/>
-    <col min="258" max="258" width="19.07421875" style="50" customWidth="1"/>
-    <col min="259" max="259" width="17.53515625" style="50" customWidth="1"/>
-    <col min="260" max="260" width="9.84375" style="50" customWidth="1"/>
-    <col min="261" max="261" width="15.07421875" style="50" customWidth="1"/>
-    <col min="262" max="262" width="13.23046875" style="50" customWidth="1"/>
-    <col min="263" max="263" width="11.84375" style="50" customWidth="1"/>
-    <col min="264" max="264" width="6.3046875" style="50" customWidth="1"/>
+    <col min="257" max="257" width="14.08984375" style="50" customWidth="1"/>
+    <col min="258" max="258" width="19.08984375" style="50" customWidth="1"/>
+    <col min="259" max="259" width="17.54296875" style="50" customWidth="1"/>
+    <col min="260" max="260" width="9.81640625" style="50" customWidth="1"/>
+    <col min="261" max="261" width="15.08984375" style="50" customWidth="1"/>
+    <col min="262" max="262" width="13.26953125" style="50" customWidth="1"/>
+    <col min="263" max="263" width="11.81640625" style="50" customWidth="1"/>
+    <col min="264" max="264" width="6.26953125" style="50" customWidth="1"/>
     <col min="265" max="512" width="9" style="50"/>
-    <col min="513" max="513" width="14.07421875" style="50" customWidth="1"/>
-    <col min="514" max="514" width="19.07421875" style="50" customWidth="1"/>
-    <col min="515" max="515" width="17.53515625" style="50" customWidth="1"/>
-    <col min="516" max="516" width="9.84375" style="50" customWidth="1"/>
-    <col min="517" max="517" width="15.07421875" style="50" customWidth="1"/>
-    <col min="518" max="518" width="13.23046875" style="50" customWidth="1"/>
-    <col min="519" max="519" width="11.84375" style="50" customWidth="1"/>
-    <col min="520" max="520" width="6.3046875" style="50" customWidth="1"/>
+    <col min="513" max="513" width="14.08984375" style="50" customWidth="1"/>
+    <col min="514" max="514" width="19.08984375" style="50" customWidth="1"/>
+    <col min="515" max="515" width="17.54296875" style="50" customWidth="1"/>
+    <col min="516" max="516" width="9.81640625" style="50" customWidth="1"/>
+    <col min="517" max="517" width="15.08984375" style="50" customWidth="1"/>
+    <col min="518" max="518" width="13.26953125" style="50" customWidth="1"/>
+    <col min="519" max="519" width="11.81640625" style="50" customWidth="1"/>
+    <col min="520" max="520" width="6.26953125" style="50" customWidth="1"/>
     <col min="521" max="768" width="9" style="50"/>
-    <col min="769" max="769" width="14.07421875" style="50" customWidth="1"/>
-    <col min="770" max="770" width="19.07421875" style="50" customWidth="1"/>
-    <col min="771" max="771" width="17.53515625" style="50" customWidth="1"/>
-    <col min="772" max="772" width="9.84375" style="50" customWidth="1"/>
-    <col min="773" max="773" width="15.07421875" style="50" customWidth="1"/>
-    <col min="774" max="774" width="13.23046875" style="50" customWidth="1"/>
-    <col min="775" max="775" width="11.84375" style="50" customWidth="1"/>
-    <col min="776" max="776" width="6.3046875" style="50" customWidth="1"/>
+    <col min="769" max="769" width="14.08984375" style="50" customWidth="1"/>
+    <col min="770" max="770" width="19.08984375" style="50" customWidth="1"/>
+    <col min="771" max="771" width="17.54296875" style="50" customWidth="1"/>
+    <col min="772" max="772" width="9.81640625" style="50" customWidth="1"/>
+    <col min="773" max="773" width="15.08984375" style="50" customWidth="1"/>
+    <col min="774" max="774" width="13.26953125" style="50" customWidth="1"/>
+    <col min="775" max="775" width="11.81640625" style="50" customWidth="1"/>
+    <col min="776" max="776" width="6.26953125" style="50" customWidth="1"/>
     <col min="777" max="1024" width="9" style="50"/>
-    <col min="1025" max="1025" width="14.07421875" style="50" customWidth="1"/>
-    <col min="1026" max="1026" width="19.07421875" style="50" customWidth="1"/>
-    <col min="1027" max="1027" width="17.53515625" style="50" customWidth="1"/>
-    <col min="1028" max="1028" width="9.84375" style="50" customWidth="1"/>
-    <col min="1029" max="1029" width="15.07421875" style="50" customWidth="1"/>
-    <col min="1030" max="1030" width="13.23046875" style="50" customWidth="1"/>
-    <col min="1031" max="1031" width="11.84375" style="50" customWidth="1"/>
-    <col min="1032" max="1032" width="6.3046875" style="50" customWidth="1"/>
+    <col min="1025" max="1025" width="14.08984375" style="50" customWidth="1"/>
+    <col min="1026" max="1026" width="19.08984375" style="50" customWidth="1"/>
+    <col min="1027" max="1027" width="17.54296875" style="50" customWidth="1"/>
+    <col min="1028" max="1028" width="9.81640625" style="50" customWidth="1"/>
+    <col min="1029" max="1029" width="15.08984375" style="50" customWidth="1"/>
+    <col min="1030" max="1030" width="13.26953125" style="50" customWidth="1"/>
+    <col min="1031" max="1031" width="11.81640625" style="50" customWidth="1"/>
+    <col min="1032" max="1032" width="6.26953125" style="50" customWidth="1"/>
     <col min="1033" max="1280" width="9" style="50"/>
-    <col min="1281" max="1281" width="14.07421875" style="50" customWidth="1"/>
-    <col min="1282" max="1282" width="19.07421875" style="50" customWidth="1"/>
-    <col min="1283" max="1283" width="17.53515625" style="50" customWidth="1"/>
-    <col min="1284" max="1284" width="9.84375" style="50" customWidth="1"/>
-    <col min="1285" max="1285" width="15.07421875" style="50" customWidth="1"/>
-    <col min="1286" max="1286" width="13.23046875" style="50" customWidth="1"/>
-    <col min="1287" max="1287" width="11.84375" style="50" customWidth="1"/>
-    <col min="1288" max="1288" width="6.3046875" style="50" customWidth="1"/>
+    <col min="1281" max="1281" width="14.08984375" style="50" customWidth="1"/>
+    <col min="1282" max="1282" width="19.08984375" style="50" customWidth="1"/>
+    <col min="1283" max="1283" width="17.54296875" style="50" customWidth="1"/>
+    <col min="1284" max="1284" width="9.81640625" style="50" customWidth="1"/>
+    <col min="1285" max="1285" width="15.08984375" style="50" customWidth="1"/>
+    <col min="1286" max="1286" width="13.26953125" style="50" customWidth="1"/>
+    <col min="1287" max="1287" width="11.81640625" style="50" customWidth="1"/>
+    <col min="1288" max="1288" width="6.26953125" style="50" customWidth="1"/>
     <col min="1289" max="1536" width="9" style="50"/>
-    <col min="1537" max="1537" width="14.07421875" style="50" customWidth="1"/>
-    <col min="1538" max="1538" width="19.07421875" style="50" customWidth="1"/>
-    <col min="1539" max="1539" width="17.53515625" style="50" customWidth="1"/>
-    <col min="1540" max="1540" width="9.84375" style="50" customWidth="1"/>
-    <col min="1541" max="1541" width="15.07421875" style="50" customWidth="1"/>
-    <col min="1542" max="1542" width="13.23046875" style="50" customWidth="1"/>
-    <col min="1543" max="1543" width="11.84375" style="50" customWidth="1"/>
-    <col min="1544" max="1544" width="6.3046875" style="50" customWidth="1"/>
+    <col min="1537" max="1537" width="14.08984375" style="50" customWidth="1"/>
+    <col min="1538" max="1538" width="19.08984375" style="50" customWidth="1"/>
+    <col min="1539" max="1539" width="17.54296875" style="50" customWidth="1"/>
+    <col min="1540" max="1540" width="9.81640625" style="50" customWidth="1"/>
+    <col min="1541" max="1541" width="15.08984375" style="50" customWidth="1"/>
+    <col min="1542" max="1542" width="13.26953125" style="50" customWidth="1"/>
+    <col min="1543" max="1543" width="11.81640625" style="50" customWidth="1"/>
+    <col min="1544" max="1544" width="6.26953125" style="50" customWidth="1"/>
     <col min="1545" max="1792" width="9" style="50"/>
-    <col min="1793" max="1793" width="14.07421875" style="50" customWidth="1"/>
-    <col min="1794" max="1794" width="19.07421875" style="50" customWidth="1"/>
-    <col min="1795" max="1795" width="17.53515625" style="50" customWidth="1"/>
-    <col min="1796" max="1796" width="9.84375" style="50" customWidth="1"/>
-    <col min="1797" max="1797" width="15.07421875" style="50" customWidth="1"/>
-    <col min="1798" max="1798" width="13.23046875" style="50" customWidth="1"/>
-    <col min="1799" max="1799" width="11.84375" style="50" customWidth="1"/>
-    <col min="1800" max="1800" width="6.3046875" style="50" customWidth="1"/>
+    <col min="1793" max="1793" width="14.08984375" style="50" customWidth="1"/>
+    <col min="1794" max="1794" width="19.08984375" style="50" customWidth="1"/>
+    <col min="1795" max="1795" width="17.54296875" style="50" customWidth="1"/>
+    <col min="1796" max="1796" width="9.81640625" style="50" customWidth="1"/>
+    <col min="1797" max="1797" width="15.08984375" style="50" customWidth="1"/>
+    <col min="1798" max="1798" width="13.26953125" style="50" customWidth="1"/>
+    <col min="1799" max="1799" width="11.81640625" style="50" customWidth="1"/>
+    <col min="1800" max="1800" width="6.26953125" style="50" customWidth="1"/>
     <col min="1801" max="2048" width="9" style="50"/>
-    <col min="2049" max="2049" width="14.07421875" style="50" customWidth="1"/>
-    <col min="2050" max="2050" width="19.07421875" style="50" customWidth="1"/>
-    <col min="2051" max="2051" width="17.53515625" style="50" customWidth="1"/>
-    <col min="2052" max="2052" width="9.84375" style="50" customWidth="1"/>
-    <col min="2053" max="2053" width="15.07421875" style="50" customWidth="1"/>
-    <col min="2054" max="2054" width="13.23046875" style="50" customWidth="1"/>
-    <col min="2055" max="2055" width="11.84375" style="50" customWidth="1"/>
-    <col min="2056" max="2056" width="6.3046875" style="50" customWidth="1"/>
+    <col min="2049" max="2049" width="14.08984375" style="50" customWidth="1"/>
+    <col min="2050" max="2050" width="19.08984375" style="50" customWidth="1"/>
+    <col min="2051" max="2051" width="17.54296875" style="50" customWidth="1"/>
+    <col min="2052" max="2052" width="9.81640625" style="50" customWidth="1"/>
+    <col min="2053" max="2053" width="15.08984375" style="50" customWidth="1"/>
+    <col min="2054" max="2054" width="13.26953125" style="50" customWidth="1"/>
+    <col min="2055" max="2055" width="11.81640625" style="50" customWidth="1"/>
+    <col min="2056" max="2056" width="6.26953125" style="50" customWidth="1"/>
     <col min="2057" max="2304" width="9" style="50"/>
-    <col min="2305" max="2305" width="14.07421875" style="50" customWidth="1"/>
-    <col min="2306" max="2306" width="19.07421875" style="50" customWidth="1"/>
-    <col min="2307" max="2307" width="17.53515625" style="50" customWidth="1"/>
-    <col min="2308" max="2308" width="9.84375" style="50" customWidth="1"/>
-    <col min="2309" max="2309" width="15.07421875" style="50" customWidth="1"/>
-    <col min="2310" max="2310" width="13.23046875" style="50" customWidth="1"/>
-    <col min="2311" max="2311" width="11.84375" style="50" customWidth="1"/>
-    <col min="2312" max="2312" width="6.3046875" style="50" customWidth="1"/>
+    <col min="2305" max="2305" width="14.08984375" style="50" customWidth="1"/>
+    <col min="2306" max="2306" width="19.08984375" style="50" customWidth="1"/>
+    <col min="2307" max="2307" width="17.54296875" style="50" customWidth="1"/>
+    <col min="2308" max="2308" width="9.81640625" style="50" customWidth="1"/>
+    <col min="2309" max="2309" width="15.08984375" style="50" customWidth="1"/>
+    <col min="2310" max="2310" width="13.26953125" style="50" customWidth="1"/>
+    <col min="2311" max="2311" width="11.81640625" style="50" customWidth="1"/>
+    <col min="2312" max="2312" width="6.26953125" style="50" customWidth="1"/>
     <col min="2313" max="2560" width="9" style="50"/>
-    <col min="2561" max="2561" width="14.07421875" style="50" customWidth="1"/>
-    <col min="2562" max="2562" width="19.07421875" style="50" customWidth="1"/>
-    <col min="2563" max="2563" width="17.53515625" style="50" customWidth="1"/>
-    <col min="2564" max="2564" width="9.84375" style="50" customWidth="1"/>
-    <col min="2565" max="2565" width="15.07421875" style="50" customWidth="1"/>
-    <col min="2566" max="2566" width="13.23046875" style="50" customWidth="1"/>
-    <col min="2567" max="2567" width="11.84375" style="50" customWidth="1"/>
-    <col min="2568" max="2568" width="6.3046875" style="50" customWidth="1"/>
+    <col min="2561" max="2561" width="14.08984375" style="50" customWidth="1"/>
+    <col min="2562" max="2562" width="19.08984375" style="50" customWidth="1"/>
+    <col min="2563" max="2563" width="17.54296875" style="50" customWidth="1"/>
+    <col min="2564" max="2564" width="9.81640625" style="50" customWidth="1"/>
+    <col min="2565" max="2565" width="15.08984375" style="50" customWidth="1"/>
+    <col min="2566" max="2566" width="13.26953125" style="50" customWidth="1"/>
+    <col min="2567" max="2567" width="11.81640625" style="50" customWidth="1"/>
+    <col min="2568" max="2568" width="6.26953125" style="50" customWidth="1"/>
     <col min="2569" max="2816" width="9" style="50"/>
-    <col min="2817" max="2817" width="14.07421875" style="50" customWidth="1"/>
-    <col min="2818" max="2818" width="19.07421875" style="50" customWidth="1"/>
-    <col min="2819" max="2819" width="17.53515625" style="50" customWidth="1"/>
-    <col min="2820" max="2820" width="9.84375" style="50" customWidth="1"/>
-    <col min="2821" max="2821" width="15.07421875" style="50" customWidth="1"/>
-    <col min="2822" max="2822" width="13.23046875" style="50" customWidth="1"/>
-    <col min="2823" max="2823" width="11.84375" style="50" customWidth="1"/>
-    <col min="2824" max="2824" width="6.3046875" style="50" customWidth="1"/>
+    <col min="2817" max="2817" width="14.08984375" style="50" customWidth="1"/>
+    <col min="2818" max="2818" width="19.08984375" style="50" customWidth="1"/>
+    <col min="2819" max="2819" width="17.54296875" style="50" customWidth="1"/>
+    <col min="2820" max="2820" width="9.81640625" style="50" customWidth="1"/>
+    <col min="2821" max="2821" width="15.08984375" style="50" customWidth="1"/>
+    <col min="2822" max="2822" width="13.26953125" style="50" customWidth="1"/>
+    <col min="2823" max="2823" width="11.81640625" style="50" customWidth="1"/>
+    <col min="2824" max="2824" width="6.26953125" style="50" customWidth="1"/>
     <col min="2825" max="3072" width="9" style="50"/>
-    <col min="3073" max="3073" width="14.07421875" style="50" customWidth="1"/>
-    <col min="3074" max="3074" width="19.07421875" style="50" customWidth="1"/>
-    <col min="3075" max="3075" width="17.53515625" style="50" customWidth="1"/>
-    <col min="3076" max="3076" width="9.84375" style="50" customWidth="1"/>
-    <col min="3077" max="3077" width="15.07421875" style="50" customWidth="1"/>
-    <col min="3078" max="3078" width="13.23046875" style="50" customWidth="1"/>
-    <col min="3079" max="3079" width="11.84375" style="50" customWidth="1"/>
-    <col min="3080" max="3080" width="6.3046875" style="50" customWidth="1"/>
+    <col min="3073" max="3073" width="14.08984375" style="50" customWidth="1"/>
+    <col min="3074" max="3074" width="19.08984375" style="50" customWidth="1"/>
+    <col min="3075" max="3075" width="17.54296875" style="50" customWidth="1"/>
+    <col min="3076" max="3076" width="9.81640625" style="50" customWidth="1"/>
+    <col min="3077" max="3077" width="15.08984375" style="50" customWidth="1"/>
+    <col min="3078" max="3078" width="13.26953125" style="50" customWidth="1"/>
+    <col min="3079" max="3079" width="11.81640625" style="50" customWidth="1"/>
+    <col min="3080" max="3080" width="6.26953125" style="50" customWidth="1"/>
     <col min="3081" max="3328" width="9" style="50"/>
-    <col min="3329" max="3329" width="14.07421875" style="50" customWidth="1"/>
-    <col min="3330" max="3330" width="19.07421875" style="50" customWidth="1"/>
-    <col min="3331" max="3331" width="17.53515625" style="50" customWidth="1"/>
-    <col min="3332" max="3332" width="9.84375" style="50" customWidth="1"/>
-    <col min="3333" max="3333" width="15.07421875" style="50" customWidth="1"/>
-    <col min="3334" max="3334" width="13.23046875" style="50" customWidth="1"/>
-    <col min="3335" max="3335" width="11.84375" style="50" customWidth="1"/>
-    <col min="3336" max="3336" width="6.3046875" style="50" customWidth="1"/>
+    <col min="3329" max="3329" width="14.08984375" style="50" customWidth="1"/>
+    <col min="3330" max="3330" width="19.08984375" style="50" customWidth="1"/>
+    <col min="3331" max="3331" width="17.54296875" style="50" customWidth="1"/>
+    <col min="3332" max="3332" width="9.81640625" style="50" customWidth="1"/>
+    <col min="3333" max="3333" width="15.08984375" style="50" customWidth="1"/>
+    <col min="3334" max="3334" width="13.26953125" style="50" customWidth="1"/>
+    <col min="3335" max="3335" width="11.81640625" style="50" customWidth="1"/>
+    <col min="3336" max="3336" width="6.26953125" style="50" customWidth="1"/>
     <col min="3337" max="3584" width="9" style="50"/>
-    <col min="3585" max="3585" width="14.07421875" style="50" customWidth="1"/>
-    <col min="3586" max="3586" width="19.07421875" style="50" customWidth="1"/>
-    <col min="3587" max="3587" width="17.53515625" style="50" customWidth="1"/>
-    <col min="3588" max="3588" width="9.84375" style="50" customWidth="1"/>
-    <col min="3589" max="3589" width="15.07421875" style="50" customWidth="1"/>
-    <col min="3590" max="3590" width="13.23046875" style="50" customWidth="1"/>
-    <col min="3591" max="3591" width="11.84375" style="50" customWidth="1"/>
-    <col min="3592" max="3592" width="6.3046875" style="50" customWidth="1"/>
+    <col min="3585" max="3585" width="14.08984375" style="50" customWidth="1"/>
+    <col min="3586" max="3586" width="19.08984375" style="50" customWidth="1"/>
+    <col min="3587" max="3587" width="17.54296875" style="50" customWidth="1"/>
+    <col min="3588" max="3588" width="9.81640625" style="50" customWidth="1"/>
+    <col min="3589" max="3589" width="15.08984375" style="50" customWidth="1"/>
+    <col min="3590" max="3590" width="13.26953125" style="50" customWidth="1"/>
+    <col min="3591" max="3591" width="11.81640625" style="50" customWidth="1"/>
+    <col min="3592" max="3592" width="6.26953125" style="50" customWidth="1"/>
     <col min="3593" max="3840" width="9" style="50"/>
-    <col min="3841" max="3841" width="14.07421875" style="50" customWidth="1"/>
-    <col min="3842" max="3842" width="19.07421875" style="50" customWidth="1"/>
-    <col min="3843" max="3843" width="17.53515625" style="50" customWidth="1"/>
-    <col min="3844" max="3844" width="9.84375" style="50" customWidth="1"/>
-    <col min="3845" max="3845" width="15.07421875" style="50" customWidth="1"/>
-    <col min="3846" max="3846" width="13.23046875" style="50" customWidth="1"/>
-    <col min="3847" max="3847" width="11.84375" style="50" customWidth="1"/>
-    <col min="3848" max="3848" width="6.3046875" style="50" customWidth="1"/>
+    <col min="3841" max="3841" width="14.08984375" style="50" customWidth="1"/>
+    <col min="3842" max="3842" width="19.08984375" style="50" customWidth="1"/>
+    <col min="3843" max="3843" width="17.54296875" style="50" customWidth="1"/>
+    <col min="3844" max="3844" width="9.81640625" style="50" customWidth="1"/>
+    <col min="3845" max="3845" width="15.08984375" style="50" customWidth="1"/>
+    <col min="3846" max="3846" width="13.26953125" style="50" customWidth="1"/>
+    <col min="3847" max="3847" width="11.81640625" style="50" customWidth="1"/>
+    <col min="3848" max="3848" width="6.26953125" style="50" customWidth="1"/>
     <col min="3849" max="4096" width="9" style="50"/>
-    <col min="4097" max="4097" width="14.07421875" style="50" customWidth="1"/>
-    <col min="4098" max="4098" width="19.07421875" style="50" customWidth="1"/>
-    <col min="4099" max="4099" width="17.53515625" style="50" customWidth="1"/>
-    <col min="4100" max="4100" width="9.84375" style="50" customWidth="1"/>
-    <col min="4101" max="4101" width="15.07421875" style="50" customWidth="1"/>
-    <col min="4102" max="4102" width="13.23046875" style="50" customWidth="1"/>
-    <col min="4103" max="4103" width="11.84375" style="50" customWidth="1"/>
-    <col min="4104" max="4104" width="6.3046875" style="50" customWidth="1"/>
+    <col min="4097" max="4097" width="14.08984375" style="50" customWidth="1"/>
+    <col min="4098" max="4098" width="19.08984375" style="50" customWidth="1"/>
+    <col min="4099" max="4099" width="17.54296875" style="50" customWidth="1"/>
+    <col min="4100" max="4100" width="9.81640625" style="50" customWidth="1"/>
+    <col min="4101" max="4101" width="15.08984375" style="50" customWidth="1"/>
+    <col min="4102" max="4102" width="13.26953125" style="50" customWidth="1"/>
+    <col min="4103" max="4103" width="11.81640625" style="50" customWidth="1"/>
+    <col min="4104" max="4104" width="6.26953125" style="50" customWidth="1"/>
     <col min="4105" max="4352" width="9" style="50"/>
-    <col min="4353" max="4353" width="14.07421875" style="50" customWidth="1"/>
-    <col min="4354" max="4354" width="19.07421875" style="50" customWidth="1"/>
-    <col min="4355" max="4355" width="17.53515625" style="50" customWidth="1"/>
-    <col min="4356" max="4356" width="9.84375" style="50" customWidth="1"/>
-    <col min="4357" max="4357" width="15.07421875" style="50" customWidth="1"/>
-    <col min="4358" max="4358" width="13.23046875" style="50" customWidth="1"/>
-    <col min="4359" max="4359" width="11.84375" style="50" customWidth="1"/>
-    <col min="4360" max="4360" width="6.3046875" style="50" customWidth="1"/>
+    <col min="4353" max="4353" width="14.08984375" style="50" customWidth="1"/>
+    <col min="4354" max="4354" width="19.08984375" style="50" customWidth="1"/>
+    <col min="4355" max="4355" width="17.54296875" style="50" customWidth="1"/>
+    <col min="4356" max="4356" width="9.81640625" style="50" customWidth="1"/>
+    <col min="4357" max="4357" width="15.08984375" style="50" customWidth="1"/>
+    <col min="4358" max="4358" width="13.26953125" style="50" customWidth="1"/>
+    <col min="4359" max="4359" width="11.81640625" style="50" customWidth="1"/>
+    <col min="4360" max="4360" width="6.26953125" style="50" customWidth="1"/>
     <col min="4361" max="4608" width="9" style="50"/>
-    <col min="4609" max="4609" width="14.07421875" style="50" customWidth="1"/>
-    <col min="4610" max="4610" width="19.07421875" style="50" customWidth="1"/>
-    <col min="4611" max="4611" width="17.53515625" style="50" customWidth="1"/>
-    <col min="4612" max="4612" width="9.84375" style="50" customWidth="1"/>
-    <col min="4613" max="4613" width="15.07421875" style="50" customWidth="1"/>
-    <col min="4614" max="4614" width="13.23046875" style="50" customWidth="1"/>
-    <col min="4615" max="4615" width="11.84375" style="50" customWidth="1"/>
-    <col min="4616" max="4616" width="6.3046875" style="50" customWidth="1"/>
+    <col min="4609" max="4609" width="14.08984375" style="50" customWidth="1"/>
+    <col min="4610" max="4610" width="19.08984375" style="50" customWidth="1"/>
+    <col min="4611" max="4611" width="17.54296875" style="50" customWidth="1"/>
+    <col min="4612" max="4612" width="9.81640625" style="50" customWidth="1"/>
+    <col min="4613" max="4613" width="15.08984375" style="50" customWidth="1"/>
+    <col min="4614" max="4614" width="13.26953125" style="50" customWidth="1"/>
+    <col min="4615" max="4615" width="11.81640625" style="50" customWidth="1"/>
+    <col min="4616" max="4616" width="6.26953125" style="50" customWidth="1"/>
     <col min="4617" max="4864" width="9" style="50"/>
-    <col min="4865" max="4865" width="14.07421875" style="50" customWidth="1"/>
-    <col min="4866" max="4866" width="19.07421875" style="50" customWidth="1"/>
-    <col min="4867" max="4867" width="17.53515625" style="50" customWidth="1"/>
-    <col min="4868" max="4868" width="9.84375" style="50" customWidth="1"/>
-    <col min="4869" max="4869" width="15.07421875" style="50" customWidth="1"/>
-    <col min="4870" max="4870" width="13.23046875" style="50" customWidth="1"/>
-    <col min="4871" max="4871" width="11.84375" style="50" customWidth="1"/>
-    <col min="4872" max="4872" width="6.3046875" style="50" customWidth="1"/>
+    <col min="4865" max="4865" width="14.08984375" style="50" customWidth="1"/>
+    <col min="4866" max="4866" width="19.08984375" style="50" customWidth="1"/>
+    <col min="4867" max="4867" width="17.54296875" style="50" customWidth="1"/>
+    <col min="4868" max="4868" width="9.81640625" style="50" customWidth="1"/>
+    <col min="4869" max="4869" width="15.08984375" style="50" customWidth="1"/>
+    <col min="4870" max="4870" width="13.26953125" style="50" customWidth="1"/>
+    <col min="4871" max="4871" width="11.81640625" style="50" customWidth="1"/>
+    <col min="4872" max="4872" width="6.26953125" style="50" customWidth="1"/>
     <col min="4873" max="5120" width="9" style="50"/>
-    <col min="5121" max="5121" width="14.07421875" style="50" customWidth="1"/>
-    <col min="5122" max="5122" width="19.07421875" style="50" customWidth="1"/>
-    <col min="5123" max="5123" width="17.53515625" style="50" customWidth="1"/>
-    <col min="5124" max="5124" width="9.84375" style="50" customWidth="1"/>
-    <col min="5125" max="5125" width="15.07421875" style="50" customWidth="1"/>
-    <col min="5126" max="5126" width="13.23046875" style="50" customWidth="1"/>
-    <col min="5127" max="5127" width="11.84375" style="50" customWidth="1"/>
-    <col min="5128" max="5128" width="6.3046875" style="50" customWidth="1"/>
+    <col min="5121" max="5121" width="14.08984375" style="50" customWidth="1"/>
+    <col min="5122" max="5122" width="19.08984375" style="50" customWidth="1"/>
+    <col min="5123" max="5123" width="17.54296875" style="50" customWidth="1"/>
+    <col min="5124" max="5124" width="9.81640625" style="50" customWidth="1"/>
+    <col min="5125" max="5125" width="15.08984375" style="50" customWidth="1"/>
+    <col min="5126" max="5126" width="13.26953125" style="50" customWidth="1"/>
+    <col min="5127" max="5127" width="11.81640625" style="50" customWidth="1"/>
+    <col min="5128" max="5128" width="6.26953125" style="50" customWidth="1"/>
     <col min="5129" max="5376" width="9" style="50"/>
-    <col min="5377" max="5377" width="14.07421875" style="50" customWidth="1"/>
-    <col min="5378" max="5378" width="19.07421875" style="50" customWidth="1"/>
-    <col min="5379" max="5379" width="17.53515625" style="50" customWidth="1"/>
-    <col min="5380" max="5380" width="9.84375" style="50" customWidth="1"/>
-    <col min="5381" max="5381" width="15.07421875" style="50" customWidth="1"/>
-    <col min="5382" max="5382" width="13.23046875" style="50" customWidth="1"/>
-    <col min="5383" max="5383" width="11.84375" style="50" customWidth="1"/>
-    <col min="5384" max="5384" width="6.3046875" style="50" customWidth="1"/>
+    <col min="5377" max="5377" width="14.08984375" style="50" customWidth="1"/>
+    <col min="5378" max="5378" width="19.08984375" style="50" customWidth="1"/>
+    <col min="5379" max="5379" width="17.54296875" style="50" customWidth="1"/>
+    <col min="5380" max="5380" width="9.81640625" style="50" customWidth="1"/>
+    <col min="5381" max="5381" width="15.08984375" style="50" customWidth="1"/>
+    <col min="5382" max="5382" width="13.26953125" style="50" customWidth="1"/>
+    <col min="5383" max="5383" width="11.81640625" style="50" customWidth="1"/>
+    <col min="5384" max="5384" width="6.26953125" style="50" customWidth="1"/>
     <col min="5385" max="5632" width="9" style="50"/>
-    <col min="5633" max="5633" width="14.07421875" style="50" customWidth="1"/>
-    <col min="5634" max="5634" width="19.07421875" style="50" customWidth="1"/>
-    <col min="5635" max="5635" width="17.53515625" style="50" customWidth="1"/>
-    <col min="5636" max="5636" width="9.84375" style="50" customWidth="1"/>
-    <col min="5637" max="5637" width="15.07421875" style="50" customWidth="1"/>
-    <col min="5638" max="5638" width="13.23046875" style="50" customWidth="1"/>
-    <col min="5639" max="5639" width="11.84375" style="50" customWidth="1"/>
-    <col min="5640" max="5640" width="6.3046875" style="50" customWidth="1"/>
+    <col min="5633" max="5633" width="14.08984375" style="50" customWidth="1"/>
+    <col min="5634" max="5634" width="19.08984375" style="50" customWidth="1"/>
+    <col min="5635" max="5635" width="17.54296875" style="50" customWidth="1"/>
+    <col min="5636" max="5636" width="9.81640625" style="50" customWidth="1"/>
+    <col min="5637" max="5637" width="15.08984375" style="50" customWidth="1"/>
+    <col min="5638" max="5638" width="13.26953125" style="50" customWidth="1"/>
+    <col min="5639" max="5639" width="11.81640625" style="50" customWidth="1"/>
+    <col min="5640" max="5640" width="6.26953125" style="50" customWidth="1"/>
     <col min="5641" max="5888" width="9" style="50"/>
-    <col min="5889" max="5889" width="14.07421875" style="50" customWidth="1"/>
-    <col min="5890" max="5890" width="19.07421875" style="50" customWidth="1"/>
-    <col min="5891" max="5891" width="17.53515625" style="50" customWidth="1"/>
-    <col min="5892" max="5892" width="9.84375" style="50" customWidth="1"/>
-    <col min="5893" max="5893" width="15.07421875" style="50" customWidth="1"/>
-    <col min="5894" max="5894" width="13.23046875" style="50" customWidth="1"/>
-    <col min="5895" max="5895" width="11.84375" style="50" customWidth="1"/>
-    <col min="5896" max="5896" width="6.3046875" style="50" customWidth="1"/>
+    <col min="5889" max="5889" width="14.08984375" style="50" customWidth="1"/>
+    <col min="5890" max="5890" width="19.08984375" style="50" customWidth="1"/>
+    <col min="5891" max="5891" width="17.54296875" style="50" customWidth="1"/>
+    <col min="5892" max="5892" width="9.81640625" style="50" customWidth="1"/>
+    <col min="5893" max="5893" width="15.08984375" style="50" customWidth="1"/>
+    <col min="5894" max="5894" width="13.26953125" style="50" customWidth="1"/>
+    <col min="5895" max="5895" width="11.81640625" style="50" customWidth="1"/>
+    <col min="5896" max="5896" width="6.26953125" style="50" customWidth="1"/>
     <col min="5897" max="6144" width="9" style="50"/>
-    <col min="6145" max="6145" width="14.07421875" style="50" customWidth="1"/>
-    <col min="6146" max="6146" width="19.07421875" style="50" customWidth="1"/>
-    <col min="6147" max="6147" width="17.53515625" style="50" customWidth="1"/>
-    <col min="6148" max="6148" width="9.84375" style="50" customWidth="1"/>
-    <col min="6149" max="6149" width="15.07421875" style="50" customWidth="1"/>
-    <col min="6150" max="6150" width="13.23046875" style="50" customWidth="1"/>
-    <col min="6151" max="6151" width="11.84375" style="50" customWidth="1"/>
-    <col min="6152" max="6152" width="6.3046875" style="50" customWidth="1"/>
+    <col min="6145" max="6145" width="14.08984375" style="50" customWidth="1"/>
+    <col min="6146" max="6146" width="19.08984375" style="50" customWidth="1"/>
+    <col min="6147" max="6147" width="17.54296875" style="50" customWidth="1"/>
+    <col min="6148" max="6148" width="9.81640625" style="50" customWidth="1"/>
+    <col min="6149" max="6149" width="15.08984375" style="50" customWidth="1"/>
+    <col min="6150" max="6150" width="13.26953125" style="50" customWidth="1"/>
+    <col min="6151" max="6151" width="11.81640625" style="50" customWidth="1"/>
+    <col min="6152" max="6152" width="6.26953125" style="50" customWidth="1"/>
     <col min="6153" max="6400" width="9" style="50"/>
-    <col min="6401" max="6401" width="14.07421875" style="50" customWidth="1"/>
-    <col min="6402" max="6402" width="19.07421875" style="50" customWidth="1"/>
-    <col min="6403" max="6403" width="17.53515625" style="50" customWidth="1"/>
-    <col min="6404" max="6404" width="9.84375" style="50" customWidth="1"/>
-    <col min="6405" max="6405" width="15.07421875" style="50" customWidth="1"/>
-    <col min="6406" max="6406" width="13.23046875" style="50" customWidth="1"/>
-    <col min="6407" max="6407" width="11.84375" style="50" customWidth="1"/>
-    <col min="6408" max="6408" width="6.3046875" style="50" customWidth="1"/>
+    <col min="6401" max="6401" width="14.08984375" style="50" customWidth="1"/>
+    <col min="6402" max="6402" width="19.08984375" style="50" customWidth="1"/>
+    <col min="6403" max="6403" width="17.54296875" style="50" customWidth="1"/>
+    <col min="6404" max="6404" width="9.81640625" style="50" customWidth="1"/>
+    <col min="6405" max="6405" width="15.08984375" style="50" customWidth="1"/>
+    <col min="6406" max="6406" width="13.26953125" style="50" customWidth="1"/>
+    <col min="6407" max="6407" width="11.81640625" style="50" customWidth="1"/>
+    <col min="6408" max="6408" width="6.26953125" style="50" customWidth="1"/>
     <col min="6409" max="6656" width="9" style="50"/>
-    <col min="6657" max="6657" width="14.07421875" style="50" customWidth="1"/>
-    <col min="6658" max="6658" width="19.07421875" style="50" customWidth="1"/>
-    <col min="6659" max="6659" width="17.53515625" style="50" customWidth="1"/>
-    <col min="6660" max="6660" width="9.84375" style="50" customWidth="1"/>
-    <col min="6661" max="6661" width="15.07421875" style="50" customWidth="1"/>
-    <col min="6662" max="6662" width="13.23046875" style="50" customWidth="1"/>
-    <col min="6663" max="6663" width="11.84375" style="50" customWidth="1"/>
-    <col min="6664" max="6664" width="6.3046875" style="50" customWidth="1"/>
+    <col min="6657" max="6657" width="14.08984375" style="50" customWidth="1"/>
+    <col min="6658" max="6658" width="19.08984375" style="50" customWidth="1"/>
+    <col min="6659" max="6659" width="17.54296875" style="50" customWidth="1"/>
+    <col min="6660" max="6660" width="9.81640625" style="50" customWidth="1"/>
+    <col min="6661" max="6661" width="15.08984375" style="50" customWidth="1"/>
+    <col min="6662" max="6662" width="13.26953125" style="50" customWidth="1"/>
+    <col min="6663" max="6663" width="11.81640625" style="50" customWidth="1"/>
+    <col min="6664" max="6664" width="6.26953125" style="50" customWidth="1"/>
     <col min="6665" max="6912" width="9" style="50"/>
-    <col min="6913" max="6913" width="14.07421875" style="50" customWidth="1"/>
-    <col min="6914" max="6914" width="19.07421875" style="50" customWidth="1"/>
-    <col min="6915" max="6915" width="17.53515625" style="50" customWidth="1"/>
-    <col min="6916" max="6916" width="9.84375" style="50" customWidth="1"/>
-    <col min="6917" max="6917" width="15.07421875" style="50" customWidth="1"/>
-    <col min="6918" max="6918" width="13.23046875" style="50" customWidth="1"/>
-    <col min="6919" max="6919" width="11.84375" style="50" customWidth="1"/>
-    <col min="6920" max="6920" width="6.3046875" style="50" customWidth="1"/>
+    <col min="6913" max="6913" width="14.08984375" style="50" customWidth="1"/>
+    <col min="6914" max="6914" width="19.08984375" style="50" customWidth="1"/>
+    <col min="6915" max="6915" width="17.54296875" style="50" customWidth="1"/>
+    <col min="6916" max="6916" width="9.81640625" style="50" customWidth="1"/>
+    <col min="6917" max="6917" width="15.08984375" style="50" customWidth="1"/>
+    <col min="6918" max="6918" width="13.26953125" style="50" customWidth="1"/>
+    <col min="6919" max="6919" width="11.81640625" style="50" customWidth="1"/>
+    <col min="6920" max="6920" width="6.26953125" style="50" customWidth="1"/>
     <col min="6921" max="7168" width="9" style="50"/>
-    <col min="7169" max="7169" width="14.07421875" style="50" customWidth="1"/>
-    <col min="7170" max="7170" width="19.07421875" style="50" customWidth="1"/>
-    <col min="7171" max="7171" width="17.53515625" style="50" customWidth="1"/>
-    <col min="7172" max="7172" width="9.84375" style="50" customWidth="1"/>
-    <col min="7173" max="7173" width="15.07421875" style="50" customWidth="1"/>
-    <col min="7174" max="7174" width="13.23046875" style="50" customWidth="1"/>
-    <col min="7175" max="7175" width="11.84375" style="50" customWidth="1"/>
-    <col min="7176" max="7176" width="6.3046875" style="50" customWidth="1"/>
+    <col min="7169" max="7169" width="14.08984375" style="50" customWidth="1"/>
+    <col min="7170" max="7170" width="19.08984375" style="50" customWidth="1"/>
+    <col min="7171" max="7171" width="17.54296875" style="50" customWidth="1"/>
+    <col min="7172" max="7172" width="9.81640625" style="50" customWidth="1"/>
+    <col min="7173" max="7173" width="15.08984375" style="50" customWidth="1"/>
+    <col min="7174" max="7174" width="13.26953125" style="50" customWidth="1"/>
+    <col min="7175" max="7175" width="11.81640625" style="50" customWidth="1"/>
+    <col min="7176" max="7176" width="6.26953125" style="50" customWidth="1"/>
     <col min="7177" max="7424" width="9" style="50"/>
-    <col min="7425" max="7425" width="14.07421875" style="50" customWidth="1"/>
-    <col min="7426" max="7426" width="19.07421875" style="50" customWidth="1"/>
-    <col min="7427" max="7427" width="17.53515625" style="50" customWidth="1"/>
-    <col min="7428" max="7428" width="9.84375" style="50" customWidth="1"/>
-    <col min="7429" max="7429" width="15.07421875" style="50" customWidth="1"/>
-    <col min="7430" max="7430" width="13.23046875" style="50" customWidth="1"/>
-    <col min="7431" max="7431" width="11.84375" style="50" customWidth="1"/>
-    <col min="7432" max="7432" width="6.3046875" style="50" customWidth="1"/>
+    <col min="7425" max="7425" width="14.08984375" style="50" customWidth="1"/>
+    <col min="7426" max="7426" width="19.08984375" style="50" customWidth="1"/>
+    <col min="7427" max="7427" width="17.54296875" style="50" customWidth="1"/>
+    <col min="7428" max="7428" width="9.81640625" style="50" customWidth="1"/>
+    <col min="7429" max="7429" width="15.08984375" style="50" customWidth="1"/>
+    <col min="7430" max="7430" width="13.26953125" style="50" customWidth="1"/>
+    <col min="7431" max="7431" width="11.81640625" style="50" customWidth="1"/>
+    <col min="7432" max="7432" width="6.26953125" style="50" customWidth="1"/>
     <col min="7433" max="7680" width="9" style="50"/>
-    <col min="7681" max="7681" width="14.07421875" style="50" customWidth="1"/>
-    <col min="7682" max="7682" width="19.07421875" style="50" customWidth="1"/>
-    <col min="7683" max="7683" width="17.53515625" style="50" customWidth="1"/>
-    <col min="7684" max="7684" width="9.84375" style="50" customWidth="1"/>
-    <col min="7685" max="7685" width="15.07421875" style="50" customWidth="1"/>
-    <col min="7686" max="7686" width="13.23046875" style="50" customWidth="1"/>
-    <col min="7687" max="7687" width="11.84375" style="50" customWidth="1"/>
-    <col min="7688" max="7688" width="6.3046875" style="50" customWidth="1"/>
+    <col min="7681" max="7681" width="14.08984375" style="50" customWidth="1"/>
+    <col min="7682" max="7682" width="19.08984375" style="50" customWidth="1"/>
+    <col min="7683" max="7683" width="17.54296875" style="50" customWidth="1"/>
+    <col min="7684" max="7684" width="9.81640625" style="50" customWidth="1"/>
+    <col min="7685" max="7685" width="15.08984375" style="50" customWidth="1"/>
+    <col min="7686" max="7686" width="13.26953125" style="50" customWidth="1"/>
+    <col min="7687" max="7687" width="11.81640625" style="50" customWidth="1"/>
+    <col min="7688" max="7688" width="6.26953125" style="50" customWidth="1"/>
     <col min="7689" max="7936" width="9" style="50"/>
-    <col min="7937" max="7937" width="14.07421875" style="50" customWidth="1"/>
-    <col min="7938" max="7938" width="19.07421875" style="50" customWidth="1"/>
-    <col min="7939" max="7939" width="17.53515625" style="50" customWidth="1"/>
-    <col min="7940" max="7940" width="9.84375" style="50" customWidth="1"/>
-    <col min="7941" max="7941" width="15.07421875" style="50" customWidth="1"/>
-    <col min="7942" max="7942" width="13.23046875" style="50" customWidth="1"/>
-    <col min="7943" max="7943" width="11.84375" style="50" customWidth="1"/>
-    <col min="7944" max="7944" width="6.3046875" style="50" customWidth="1"/>
+    <col min="7937" max="7937" width="14.08984375" style="50" customWidth="1"/>
+    <col min="7938" max="7938" width="19.08984375" style="50" customWidth="1"/>
+    <col min="7939" max="7939" width="17.54296875" style="50" customWidth="1"/>
+    <col min="7940" max="7940" width="9.81640625" style="50" customWidth="1"/>
+    <col min="7941" max="7941" width="15.08984375" style="50" customWidth="1"/>
+    <col min="7942" max="7942" width="13.26953125" style="50" customWidth="1"/>
+    <col min="7943" max="7943" width="11.81640625" style="50" customWidth="1"/>
+    <col min="7944" max="7944" width="6.26953125" style="50" customWidth="1"/>
     <col min="7945" max="8192" width="9" style="50"/>
-    <col min="8193" max="8193" width="14.07421875" style="50" customWidth="1"/>
-    <col min="8194" max="8194" width="19.07421875" style="50" customWidth="1"/>
-    <col min="8195" max="8195" width="17.53515625" style="50" customWidth="1"/>
-    <col min="8196" max="8196" width="9.84375" style="50" customWidth="1"/>
-    <col min="8197" max="8197" width="15.07421875" style="50" customWidth="1"/>
-    <col min="8198" max="8198" width="13.23046875" style="50" customWidth="1"/>
-    <col min="8199" max="8199" width="11.84375" style="50" customWidth="1"/>
-    <col min="8200" max="8200" width="6.3046875" style="50" customWidth="1"/>
+    <col min="8193" max="8193" width="14.08984375" style="50" customWidth="1"/>
+    <col min="8194" max="8194" width="19.08984375" style="50" customWidth="1"/>
+    <col min="8195" max="8195" width="17.54296875" style="50" customWidth="1"/>
+    <col min="8196" max="8196" width="9.81640625" style="50" customWidth="1"/>
+    <col min="8197" max="8197" width="15.08984375" style="50" customWidth="1"/>
+    <col min="8198" max="8198" width="13.26953125" style="50" customWidth="1"/>
+    <col min="8199" max="8199" width="11.81640625" style="50" customWidth="1"/>
+    <col min="8200" max="8200" width="6.26953125" style="50" customWidth="1"/>
     <col min="8201" max="8448" width="9" style="50"/>
-    <col min="8449" max="8449" width="14.07421875" style="50" customWidth="1"/>
-    <col min="8450" max="8450" width="19.07421875" style="50" customWidth="1"/>
-    <col min="8451" max="8451" width="17.53515625" style="50" customWidth="1"/>
-    <col min="8452" max="8452" width="9.84375" style="50" customWidth="1"/>
-    <col min="8453" max="8453" width="15.07421875" style="50" customWidth="1"/>
-    <col min="8454" max="8454" width="13.23046875" style="50" customWidth="1"/>
-    <col min="8455" max="8455" width="11.84375" style="50" customWidth="1"/>
-    <col min="8456" max="8456" width="6.3046875" style="50" customWidth="1"/>
+    <col min="8449" max="8449" width="14.08984375" style="50" customWidth="1"/>
+    <col min="8450" max="8450" width="19.08984375" style="50" customWidth="1"/>
+    <col min="8451" max="8451" width="17.54296875" style="50" customWidth="1"/>
+    <col min="8452" max="8452" width="9.81640625" style="50" customWidth="1"/>
+    <col min="8453" max="8453" width="15.08984375" style="50" customWidth="1"/>
+    <col min="8454" max="8454" width="13.26953125" style="50" customWidth="1"/>
+    <col min="8455" max="8455" width="11.81640625" style="50" customWidth="1"/>
+    <col min="8456" max="8456" width="6.26953125" style="50" customWidth="1"/>
     <col min="8457" max="8704" width="9" style="50"/>
-    <col min="8705" max="8705" width="14.07421875" style="50" customWidth="1"/>
-    <col min="8706" max="8706" width="19.07421875" style="50" customWidth="1"/>
-    <col min="8707" max="8707" width="17.53515625" style="50" customWidth="1"/>
-    <col min="8708" max="8708" width="9.84375" style="50" customWidth="1"/>
-    <col min="8709" max="8709" width="15.07421875" style="50" customWidth="1"/>
-    <col min="8710" max="8710" width="13.23046875" style="50" customWidth="1"/>
-    <col min="8711" max="8711" width="11.84375" style="50" customWidth="1"/>
-    <col min="8712" max="8712" width="6.3046875" style="50" customWidth="1"/>
+    <col min="8705" max="8705" width="14.08984375" style="50" customWidth="1"/>
+    <col min="8706" max="8706" width="19.08984375" style="50" customWidth="1"/>
+    <col min="8707" max="8707" width="17.54296875" style="50" customWidth="1"/>
+    <col min="8708" max="8708" width="9.81640625" style="50" customWidth="1"/>
+    <col min="8709" max="8709" width="15.08984375" style="50" customWidth="1"/>
+    <col min="8710" max="8710" width="13.26953125" style="50" customWidth="1"/>
+    <col min="8711" max="8711" width="11.81640625" style="50" customWidth="1"/>
+    <col min="8712" max="8712" width="6.26953125" style="50" customWidth="1"/>
     <col min="8713" max="8960" width="9" style="50"/>
-    <col min="8961" max="8961" width="14.07421875" style="50" customWidth="1"/>
-    <col min="8962" max="8962" width="19.07421875" style="50" customWidth="1"/>
-    <col min="8963" max="8963" width="17.53515625" style="50" customWidth="1"/>
-    <col min="8964" max="8964" width="9.84375" style="50" customWidth="1"/>
-    <col min="8965" max="8965" width="15.07421875" style="50" customWidth="1"/>
-    <col min="8966" max="8966" width="13.23046875" style="50" customWidth="1"/>
-    <col min="8967" max="8967" width="11.84375" style="50" customWidth="1"/>
-    <col min="8968" max="8968" width="6.3046875" style="50" customWidth="1"/>
+    <col min="8961" max="8961" width="14.08984375" style="50" customWidth="1"/>
+    <col min="8962" max="8962" width="19.08984375" style="50" customWidth="1"/>
+    <col min="8963" max="8963" width="17.54296875" style="50" customWidth="1"/>
+    <col min="8964" max="8964" width="9.81640625" style="50" customWidth="1"/>
+    <col min="8965" max="8965" width="15.08984375" style="50" customWidth="1"/>
+    <col min="8966" max="8966" width="13.26953125" style="50" customWidth="1"/>
+    <col min="8967" max="8967" width="11.81640625" style="50" customWidth="1"/>
+    <col min="8968" max="8968" width="6.26953125" style="50" customWidth="1"/>
     <col min="8969" max="9216" width="9" style="50"/>
-    <col min="9217" max="9217" width="14.07421875" style="50" customWidth="1"/>
-    <col min="9218" max="9218" width="19.07421875" style="50" customWidth="1"/>
-    <col min="9219" max="9219" width="17.53515625" style="50" customWidth="1"/>
-    <col min="9220" max="9220" width="9.84375" style="50" customWidth="1"/>
-    <col min="9221" max="9221" width="15.07421875" style="50" customWidth="1"/>
-    <col min="9222" max="9222" width="13.23046875" style="50" customWidth="1"/>
-    <col min="9223" max="9223" width="11.84375" style="50" customWidth="1"/>
-    <col min="9224" max="9224" width="6.3046875" style="50" customWidth="1"/>
+    <col min="9217" max="9217" width="14.08984375" style="50" customWidth="1"/>
+    <col min="9218" max="9218" width="19.08984375" style="50" customWidth="1"/>
+    <col min="9219" max="9219" width="17.54296875" style="50" customWidth="1"/>
+    <col min="9220" max="9220" width="9.81640625" style="50" customWidth="1"/>
+    <col min="9221" max="9221" width="15.08984375" style="50" customWidth="1"/>
+    <col min="9222" max="9222" width="13.26953125" style="50" customWidth="1"/>
+    <col min="9223" max="9223" width="11.81640625" style="50" customWidth="1"/>
+    <col min="9224" max="9224" width="6.26953125" style="50" customWidth="1"/>
     <col min="9225" max="9472" width="9" style="50"/>
-    <col min="9473" max="9473" width="14.07421875" style="50" customWidth="1"/>
-    <col min="9474" max="9474" width="19.07421875" style="50" customWidth="1"/>
-    <col min="9475" max="9475" width="17.53515625" style="50" customWidth="1"/>
-    <col min="9476" max="9476" width="9.84375" style="50" customWidth="1"/>
-    <col min="9477" max="9477" width="15.07421875" style="50" customWidth="1"/>
-    <col min="9478" max="9478" width="13.23046875" style="50" customWidth="1"/>
-    <col min="9479" max="9479" width="11.84375" style="50" customWidth="1"/>
-    <col min="9480" max="9480" width="6.3046875" style="50" customWidth="1"/>
+    <col min="9473" max="9473" width="14.08984375" style="50" customWidth="1"/>
+    <col min="9474" max="9474" width="19.08984375" style="50" customWidth="1"/>
+    <col min="9475" max="9475" width="17.54296875" style="50" customWidth="1"/>
+    <col min="9476" max="9476" width="9.81640625" style="50" customWidth="1"/>
+    <col min="9477" max="9477" width="15.08984375" style="50" customWidth="1"/>
+    <col min="9478" max="9478" width="13.26953125" style="50" customWidth="1"/>
+    <col min="9479" max="9479" width="11.81640625" style="50" customWidth="1"/>
+    <col min="9480" max="9480" width="6.26953125" style="50" customWidth="1"/>
     <col min="9481" max="9728" width="9" style="50"/>
-    <col min="9729" max="9729" width="14.07421875" style="50" customWidth="1"/>
-    <col min="9730" max="9730" width="19.07421875" style="50" customWidth="1"/>
-    <col min="9731" max="9731" width="17.53515625" style="50" customWidth="1"/>
-    <col min="9732" max="9732" width="9.84375" style="50" customWidth="1"/>
-    <col min="9733" max="9733" width="15.07421875" style="50" customWidth="1"/>
-    <col min="9734" max="9734" width="13.23046875" style="50" customWidth="1"/>
-    <col min="9735" max="9735" width="11.84375" style="50" customWidth="1"/>
-    <col min="9736" max="9736" width="6.3046875" style="50" customWidth="1"/>
+    <col min="9729" max="9729" width="14.08984375" style="50" customWidth="1"/>
+    <col min="9730" max="9730" width="19.08984375" style="50" customWidth="1"/>
+    <col min="9731" max="9731" width="17.54296875" style="50" customWidth="1"/>
+    <col min="9732" max="9732" width="9.81640625" style="50" customWidth="1"/>
+    <col min="9733" max="9733" width="15.08984375" style="50" customWidth="1"/>
+    <col min="9734" max="9734" width="13.26953125" style="50" customWidth="1"/>
+    <col min="9735" max="9735" width="11.81640625" style="50" customWidth="1"/>
+    <col min="9736" max="9736" width="6.26953125" style="50" customWidth="1"/>
     <col min="9737" max="9984" width="9" style="50"/>
-    <col min="9985" max="9985" width="14.07421875" style="50" customWidth="1"/>
-    <col min="9986" max="9986" width="19.07421875" style="50" customWidth="1"/>
-    <col min="9987" max="9987" width="17.53515625" style="50" customWidth="1"/>
-    <col min="9988" max="9988" width="9.84375" style="50" customWidth="1"/>
-    <col min="9989" max="9989" width="15.07421875" style="50" customWidth="1"/>
-    <col min="9990" max="9990" width="13.23046875" style="50" customWidth="1"/>
-    <col min="9991" max="9991" width="11.84375" style="50" customWidth="1"/>
-    <col min="9992" max="9992" width="6.3046875" style="50" customWidth="1"/>
+    <col min="9985" max="9985" width="14.08984375" style="50" customWidth="1"/>
+    <col min="9986" max="9986" width="19.08984375" style="50" customWidth="1"/>
+    <col min="9987" max="9987" width="17.54296875" style="50" customWidth="1"/>
+    <col min="9988" max="9988" width="9.81640625" style="50" customWidth="1"/>
+    <col min="9989" max="9989" width="15.08984375" style="50" customWidth="1"/>
+    <col min="9990" max="9990" width="13.26953125" style="50" customWidth="1"/>
+    <col min="9991" max="9991" width="11.81640625" style="50" customWidth="1"/>
+    <col min="9992" max="9992" width="6.26953125" style="50" customWidth="1"/>
     <col min="9993" max="10240" width="9" style="50"/>
-    <col min="10241" max="10241" width="14.07421875" style="50" customWidth="1"/>
-    <col min="10242" max="10242" width="19.07421875" style="50" customWidth="1"/>
-    <col min="10243" max="10243" width="17.53515625" style="50" customWidth="1"/>
-    <col min="10244" max="10244" width="9.84375" style="50" customWidth="1"/>
-    <col min="10245" max="10245" width="15.07421875" style="50" customWidth="1"/>
-    <col min="10246" max="10246" width="13.23046875" style="50" customWidth="1"/>
-    <col min="10247" max="10247" width="11.84375" style="50" customWidth="1"/>
-    <col min="10248" max="10248" width="6.3046875" style="50" customWidth="1"/>
+    <col min="10241" max="10241" width="14.08984375" style="50" customWidth="1"/>
+    <col min="10242" max="10242" width="19.08984375" style="50" customWidth="1"/>
+    <col min="10243" max="10243" width="17.54296875" style="50" customWidth="1"/>
+    <col min="10244" max="10244" width="9.81640625" style="50" customWidth="1"/>
+    <col min="10245" max="10245" width="15.08984375" style="50" customWidth="1"/>
+    <col min="10246" max="10246" width="13.26953125" style="50" customWidth="1"/>
+    <col min="10247" max="10247" width="11.81640625" style="50" customWidth="1"/>
+    <col min="10248" max="10248" width="6.26953125" style="50" customWidth="1"/>
     <col min="10249" max="10496" width="9" style="50"/>
-    <col min="10497" max="10497" width="14.07421875" style="50" customWidth="1"/>
-    <col min="10498" max="10498" width="19.07421875" style="50" customWidth="1"/>
-    <col min="10499" max="10499" width="17.53515625" style="50" customWidth="1"/>
-    <col min="10500" max="10500" width="9.84375" style="50" customWidth="1"/>
-    <col min="10501" max="10501" width="15.07421875" style="50" customWidth="1"/>
-    <col min="10502" max="10502" width="13.23046875" style="50" customWidth="1"/>
-    <col min="10503" max="10503" width="11.84375" style="50" customWidth="1"/>
-    <col min="10504" max="10504" width="6.3046875" style="50" customWidth="1"/>
+    <col min="10497" max="10497" width="14.08984375" style="50" customWidth="1"/>
+    <col min="10498" max="10498" width="19.08984375" style="50" customWidth="1"/>
+    <col min="10499" max="10499" width="17.54296875" style="50" customWidth="1"/>
+    <col min="10500" max="10500" width="9.81640625" style="50" customWidth="1"/>
+    <col min="10501" max="10501" width="15.08984375" style="50" customWidth="1"/>
+    <col min="10502" max="10502" width="13.26953125" style="50" customWidth="1"/>
+    <col min="10503" max="10503" width="11.81640625" style="50" customWidth="1"/>
+    <col min="10504" max="10504" width="6.26953125" style="50" customWidth="1"/>
     <col min="10505" max="10752" width="9" style="50"/>
-    <col min="10753" max="10753" width="14.07421875" style="50" customWidth="1"/>
-    <col min="10754" max="10754" width="19.07421875" style="50" customWidth="1"/>
-    <col min="10755" max="10755" width="17.53515625" style="50" customWidth="1"/>
-    <col min="10756" max="10756" width="9.84375" style="50" customWidth="1"/>
-    <col min="10757" max="10757" width="15.07421875" style="50" customWidth="1"/>
-    <col min="10758" max="10758" width="13.23046875" style="50" customWidth="1"/>
-    <col min="10759" max="10759" width="11.84375" style="50" customWidth="1"/>
-    <col min="10760" max="10760" width="6.3046875" style="50" customWidth="1"/>
+    <col min="10753" max="10753" width="14.08984375" style="50" customWidth="1"/>
+    <col min="10754" max="10754" width="19.08984375" style="50" customWidth="1"/>
+    <col min="10755" max="10755" width="17.54296875" style="50" customWidth="1"/>
+    <col min="10756" max="10756" width="9.81640625" style="50" customWidth="1"/>
+    <col min="10757" max="10757" width="15.08984375" style="50" customWidth="1"/>
+    <col min="10758" max="10758" width="13.26953125" style="50" customWidth="1"/>
+    <col min="10759" max="10759" width="11.81640625" style="50" customWidth="1"/>
+    <col min="10760" max="10760" width="6.26953125" style="50" customWidth="1"/>
     <col min="10761" max="11008" width="9" style="50"/>
-    <col min="11009" max="11009" width="14.07421875" style="50" customWidth="1"/>
-    <col min="11010" max="11010" width="19.07421875" style="50" customWidth="1"/>
-    <col min="11011" max="11011" width="17.53515625" style="50" customWidth="1"/>
-    <col min="11012" max="11012" width="9.84375" style="50" customWidth="1"/>
-    <col min="11013" max="11013" width="15.07421875" style="50" customWidth="1"/>
-    <col min="11014" max="11014" width="13.23046875" style="50" customWidth="1"/>
-    <col min="11015" max="11015" width="11.84375" style="50" customWidth="1"/>
-    <col min="11016" max="11016" width="6.3046875" style="50" customWidth="1"/>
+    <col min="11009" max="11009" width="14.08984375" style="50" customWidth="1"/>
+    <col min="11010" max="11010" width="19.08984375" style="50" customWidth="1"/>
+    <col min="11011" max="11011" width="17.54296875" style="50" customWidth="1"/>
+    <col min="11012" max="11012" width="9.81640625" style="50" customWidth="1"/>
+    <col min="11013" max="11013" width="15.08984375" style="50" customWidth="1"/>
+    <col min="11014" max="11014" width="13.26953125" style="50" customWidth="1"/>
+    <col min="11015" max="11015" width="11.81640625" style="50" customWidth="1"/>
+    <col min="11016" max="11016" width="6.26953125" style="50" customWidth="1"/>
     <col min="11017" max="11264" width="9" style="50"/>
-    <col min="11265" max="11265" width="14.07421875" style="50" customWidth="1"/>
-    <col min="11266" max="11266" width="19.07421875" style="50" customWidth="1"/>
-    <col min="11267" max="11267" width="17.53515625" style="50" customWidth="1"/>
-    <col min="11268" max="11268" width="9.84375" style="50" customWidth="1"/>
-    <col min="11269" max="11269" width="15.07421875" style="50" customWidth="1"/>
-    <col min="11270" max="11270" width="13.23046875" style="50" customWidth="1"/>
-    <col min="11271" max="11271" width="11.84375" style="50" customWidth="1"/>
-    <col min="11272" max="11272" width="6.3046875" style="50" customWidth="1"/>
+    <col min="11265" max="11265" width="14.08984375" style="50" customWidth="1"/>
+    <col min="11266" max="11266" width="19.08984375" style="50" customWidth="1"/>
+    <col min="11267" max="11267" width="17.54296875" style="50" customWidth="1"/>
+    <col min="11268" max="11268" width="9.81640625" style="50" customWidth="1"/>
+    <col min="11269" max="11269" width="15.08984375" style="50" customWidth="1"/>
+    <col min="11270" max="11270" width="13.26953125" style="50" customWidth="1"/>
+    <col min="11271" max="11271" width="11.81640625" style="50" customWidth="1"/>
+    <col min="11272" max="11272" width="6.26953125" style="50" customWidth="1"/>
     <col min="11273" max="11520" width="9" style="50"/>
-    <col min="11521" max="11521" width="14.07421875" style="50" customWidth="1"/>
-    <col min="11522" max="11522" width="19.07421875" style="50" customWidth="1"/>
-    <col min="11523" max="11523" width="17.53515625" style="50" customWidth="1"/>
-    <col min="11524" max="11524" width="9.84375" style="50" customWidth="1"/>
-    <col min="11525" max="11525" width="15.07421875" style="50" customWidth="1"/>
-    <col min="11526" max="11526" width="13.23046875" style="50" customWidth="1"/>
-    <col min="11527" max="11527" width="11.84375" style="50" customWidth="1"/>
-    <col min="11528" max="11528" width="6.3046875" style="50" customWidth="1"/>
+    <col min="11521" max="11521" width="14.08984375" style="50" customWidth="1"/>
+    <col min="11522" max="11522" width="19.08984375" style="50" customWidth="1"/>
+    <col min="11523" max="11523" width="17.54296875" style="50" customWidth="1"/>
+    <col min="11524" max="11524" width="9.81640625" style="50" customWidth="1"/>
+    <col min="11525" max="11525" width="15.08984375" style="50" customWidth="1"/>
+    <col min="11526" max="11526" width="13.26953125" style="50" customWidth="1"/>
+    <col min="11527" max="11527" width="11.81640625" style="50" customWidth="1"/>
+    <col min="11528" max="11528" width="6.26953125" style="50" customWidth="1"/>
     <col min="11529" max="11776" width="9" style="50"/>
-    <col min="11777" max="11777" width="14.07421875" style="50" customWidth="1"/>
-    <col min="11778" max="11778" width="19.07421875" style="50" customWidth="1"/>
-    <col min="11779" max="11779" width="17.53515625" style="50" customWidth="1"/>
-    <col min="11780" max="11780" width="9.84375" style="50" customWidth="1"/>
-    <col min="11781" max="11781" width="15.07421875" style="50" customWidth="1"/>
-    <col min="11782" max="11782" width="13.23046875" style="50" customWidth="1"/>
-    <col min="11783" max="11783" width="11.84375" style="50" customWidth="1"/>
-    <col min="11784" max="11784" width="6.3046875" style="50" customWidth="1"/>
+    <col min="11777" max="11777" width="14.08984375" style="50" customWidth="1"/>
+    <col min="11778" max="11778" width="19.08984375" style="50" customWidth="1"/>
+    <col min="11779" max="11779" width="17.54296875" style="50" customWidth="1"/>
+    <col min="11780" max="11780" width="9.81640625" style="50" customWidth="1"/>
+    <col min="11781" max="11781" width="15.08984375" style="50" customWidth="1"/>
+    <col min="11782" max="11782" width="13.26953125" style="50" customWidth="1"/>
+    <col min="11783" max="11783" width="11.81640625" style="50" customWidth="1"/>
+    <col min="11784" max="11784" width="6.26953125" style="50" customWidth="1"/>
     <col min="11785" max="12032" width="9" style="50"/>
-    <col min="12033" max="12033" width="14.07421875" style="50" customWidth="1"/>
-    <col min="12034" max="12034" width="19.07421875" style="50" customWidth="1"/>
-    <col min="12035" max="12035" width="17.53515625" style="50" customWidth="1"/>
-    <col min="12036" max="12036" width="9.84375" style="50" customWidth="1"/>
-    <col min="12037" max="12037" width="15.07421875" style="50" customWidth="1"/>
-    <col min="12038" max="12038" width="13.23046875" style="50" customWidth="1"/>
-    <col min="12039" max="12039" width="11.84375" style="50" customWidth="1"/>
-    <col min="12040" max="12040" width="6.3046875" style="50" customWidth="1"/>
+    <col min="12033" max="12033" width="14.08984375" style="50" customWidth="1"/>
+    <col min="12034" max="12034" width="19.08984375" style="50" customWidth="1"/>
+    <col min="12035" max="12035" width="17.54296875" style="50" customWidth="1"/>
+    <col min="12036" max="12036" width="9.81640625" style="50" customWidth="1"/>
+    <col min="12037" max="12037" width="15.08984375" style="50" customWidth="1"/>
+    <col min="12038" max="12038" width="13.26953125" style="50" customWidth="1"/>
+    <col min="12039" max="12039" width="11.81640625" style="50" customWidth="1"/>
+    <col min="12040" max="12040" width="6.26953125" style="50" customWidth="1"/>
     <col min="12041" max="12288" width="9" style="50"/>
-    <col min="12289" max="12289" width="14.07421875" style="50" customWidth="1"/>
-    <col min="12290" max="12290" width="19.07421875" style="50" customWidth="1"/>
-    <col min="12291" max="12291" width="17.53515625" style="50" customWidth="1"/>
-    <col min="12292" max="12292" width="9.84375" style="50" customWidth="1"/>
-    <col min="12293" max="12293" width="15.07421875" style="50" customWidth="1"/>
-    <col min="12294" max="12294" width="13.23046875" style="50" customWidth="1"/>
-    <col min="12295" max="12295" width="11.84375" style="50" customWidth="1"/>
-    <col min="12296" max="12296" width="6.3046875" style="50" customWidth="1"/>
+    <col min="12289" max="12289" width="14.08984375" style="50" customWidth="1"/>
+    <col min="12290" max="12290" width="19.08984375" style="50" customWidth="1"/>
+    <col min="12291" max="12291" width="17.54296875" style="50" customWidth="1"/>
+    <col min="12292" max="12292" width="9.81640625" style="50" customWidth="1"/>
+    <col min="12293" max="12293" width="15.08984375" style="50" customWidth="1"/>
+    <col min="12294" max="12294" width="13.26953125" style="50" customWidth="1"/>
+    <col min="12295" max="12295" width="11.81640625" style="50" customWidth="1"/>
+    <col min="12296" max="12296" width="6.26953125" style="50" customWidth="1"/>
     <col min="12297" max="12544" width="9" style="50"/>
-    <col min="12545" max="12545" width="14.07421875" style="50" customWidth="1"/>
-    <col min="12546" max="12546" width="19.07421875" style="50" customWidth="1"/>
-    <col min="12547" max="12547" width="17.53515625" style="50" customWidth="1"/>
-    <col min="12548" max="12548" width="9.84375" style="50" customWidth="1"/>
-    <col min="12549" max="12549" width="15.07421875" style="50" customWidth="1"/>
-    <col min="12550" max="12550" width="13.23046875" style="50" customWidth="1"/>
-    <col min="12551" max="12551" width="11.84375" style="50" customWidth="1"/>
-    <col min="12552" max="12552" width="6.3046875" style="50" customWidth="1"/>
+    <col min="12545" max="12545" width="14.08984375" style="50" customWidth="1"/>
+    <col min="12546" max="12546" width="19.08984375" style="50" customWidth="1"/>
+    <col min="12547" max="12547" width="17.54296875" style="50" customWidth="1"/>
+    <col min="12548" max="12548" width="9.81640625" style="50" customWidth="1"/>
+    <col min="12549" max="12549" width="15.08984375" style="50" customWidth="1"/>
+    <col min="12550" max="12550" width="13.26953125" style="50" customWidth="1"/>
+    <col min="12551" max="12551" width="11.81640625" style="50" customWidth="1"/>
+    <col min="12552" max="12552" width="6.26953125" style="50" customWidth="1"/>
     <col min="12553" max="12800" width="9" style="50"/>
-    <col min="12801" max="12801" width="14.07421875" style="50" customWidth="1"/>
-    <col min="12802" max="12802" width="19.07421875" style="50" customWidth="1"/>
-    <col min="12803" max="12803" width="17.53515625" style="50" customWidth="1"/>
-    <col min="12804" max="12804" width="9.84375" style="50" customWidth="1"/>
-    <col min="12805" max="12805" width="15.07421875" style="50" customWidth="1"/>
-    <col min="12806" max="12806" width="13.23046875" style="50" customWidth="1"/>
-    <col min="12807" max="12807" width="11.84375" style="50" customWidth="1"/>
-    <col min="12808" max="12808" width="6.3046875" style="50" customWidth="1"/>
+    <col min="12801" max="12801" width="14.08984375" style="50" customWidth="1"/>
+    <col min="12802" max="12802" width="19.08984375" style="50" customWidth="1"/>
+    <col min="12803" max="12803" width="17.54296875" style="50" customWidth="1"/>
+    <col min="12804" max="12804" width="9.81640625" style="50" customWidth="1"/>
+    <col min="12805" max="12805" width="15.08984375" style="50" customWidth="1"/>
+    <col min="12806" max="12806" width="13.26953125" style="50" customWidth="1"/>
+    <col min="12807" max="12807" width="11.81640625" style="50" customWidth="1"/>
+    <col min="12808" max="12808" width="6.26953125" style="50" customWidth="1"/>
     <col min="12809" max="13056" width="9" style="50"/>
-    <col min="13057" max="13057" width="14.07421875" style="50" customWidth="1"/>
-    <col min="13058" max="13058" width="19.07421875" style="50" customWidth="1"/>
-    <col min="13059" max="13059" width="17.53515625" style="50" customWidth="1"/>
-    <col min="13060" max="13060" width="9.84375" style="50" customWidth="1"/>
-    <col min="13061" max="13061" width="15.07421875" style="50" customWidth="1"/>
-    <col min="13062" max="13062" width="13.23046875" style="50" customWidth="1"/>
-    <col min="13063" max="13063" width="11.84375" style="50" customWidth="1"/>
-    <col min="13064" max="13064" width="6.3046875" style="50" customWidth="1"/>
+    <col min="13057" max="13057" width="14.08984375" style="50" customWidth="1"/>
+    <col min="13058" max="13058" width="19.08984375" style="50" customWidth="1"/>
+    <col min="13059" max="13059" width="17.54296875" style="50" customWidth="1"/>
+    <col min="13060" max="13060" width="9.81640625" style="50" customWidth="1"/>
+    <col min="13061" max="13061" width="15.08984375" style="50" customWidth="1"/>
+    <col min="13062" max="13062" width="13.26953125" style="50" customWidth="1"/>
+    <col min="13063" max="13063" width="11.81640625" style="50" customWidth="1"/>
+    <col min="13064" max="13064" width="6.26953125" style="50" customWidth="1"/>
     <col min="13065" max="13312" width="9" style="50"/>
-    <col min="13313" max="13313" width="14.07421875" style="50" customWidth="1"/>
-    <col min="13314" max="13314" width="19.07421875" style="50" customWidth="1"/>
-    <col min="13315" max="13315" width="17.53515625" style="50" customWidth="1"/>
-    <col min="13316" max="13316" width="9.84375" style="50" customWidth="1"/>
-    <col min="13317" max="13317" width="15.07421875" style="50" customWidth="1"/>
-    <col min="13318" max="13318" width="13.23046875" style="50" customWidth="1"/>
-    <col min="13319" max="13319" width="11.84375" style="50" customWidth="1"/>
-    <col min="13320" max="13320" width="6.3046875" style="50" customWidth="1"/>
+    <col min="13313" max="13313" width="14.08984375" style="50" customWidth="1"/>
+    <col min="13314" max="13314" width="19.08984375" style="50" customWidth="1"/>
+    <col min="13315" max="13315" width="17.54296875" style="50" customWidth="1"/>
+    <col min="13316" max="13316" width="9.81640625" style="50" customWidth="1"/>
+    <col min="13317" max="13317" width="15.08984375" style="50" customWidth="1"/>
+    <col min="13318" max="13318" width="13.26953125" style="50" customWidth="1"/>
+    <col min="13319" max="13319" width="11.81640625" style="50" customWidth="1"/>
+    <col min="13320" max="13320" width="6.26953125" style="50" customWidth="1"/>
     <col min="13321" max="13568" width="9" style="50"/>
-    <col min="13569" max="13569" width="14.07421875" style="50" customWidth="1"/>
-    <col min="13570" max="13570" width="19.07421875" style="50" customWidth="1"/>
-    <col min="13571" max="13571" width="17.53515625" style="50" customWidth="1"/>
-    <col min="13572" max="13572" width="9.84375" style="50" customWidth="1"/>
-    <col min="13573" max="13573" width="15.07421875" style="50" customWidth="1"/>
-    <col min="13574" max="13574" width="13.23046875" style="50" customWidth="1"/>
-    <col min="13575" max="13575" width="11.84375" style="50" customWidth="1"/>
-    <col min="13576" max="13576" width="6.3046875" style="50" customWidth="1"/>
+    <col min="13569" max="13569" width="14.08984375" style="50" customWidth="1"/>
+    <col min="13570" max="13570" width="19.08984375" style="50" customWidth="1"/>
+    <col min="13571" max="13571" width="17.54296875" style="50" customWidth="1"/>
+    <col min="13572" max="13572" width="9.81640625" style="50" customWidth="1"/>
+    <col min="13573" max="13573" width="15.08984375" style="50" customWidth="1"/>
+    <col min="13574" max="13574" width="13.26953125" style="50" customWidth="1"/>
+    <col min="13575" max="13575" width="11.81640625" style="50" customWidth="1"/>
+    <col min="13576" max="13576" width="6.26953125" style="50" customWidth="1"/>
     <col min="13577" max="13824" width="9" style="50"/>
-    <col min="13825" max="13825" width="14.07421875" style="50" customWidth="1"/>
-    <col min="13826" max="13826" width="19.07421875" style="50" customWidth="1"/>
-    <col min="13827" max="13827" width="17.53515625" style="50" customWidth="1"/>
-    <col min="13828" max="13828" width="9.84375" style="50" customWidth="1"/>
-    <col min="13829" max="13829" width="15.07421875" style="50" customWidth="1"/>
-    <col min="13830" max="13830" width="13.23046875" style="50" customWidth="1"/>
-    <col min="13831" max="13831" width="11.84375" style="50" customWidth="1"/>
-    <col min="13832" max="13832" width="6.3046875" style="50" customWidth="1"/>
+    <col min="13825" max="13825" width="14.08984375" style="50" customWidth="1"/>
+    <col min="13826" max="13826" width="19.08984375" style="50" customWidth="1"/>
+    <col min="13827" max="13827" width="17.54296875" style="50" customWidth="1"/>
+    <col min="13828" max="13828" width="9.81640625" style="50" customWidth="1"/>
+    <col min="13829" max="13829" width="15.08984375" style="50" customWidth="1"/>
+    <col min="13830" max="13830" width="13.26953125" style="50" customWidth="1"/>
+    <col min="13831" max="13831" width="11.81640625" style="50" customWidth="1"/>
+    <col min="13832" max="13832" width="6.26953125" style="50" customWidth="1"/>
     <col min="13833" max="14080" width="9" style="50"/>
-    <col min="14081" max="14081" width="14.07421875" style="50" customWidth="1"/>
-    <col min="14082" max="14082" width="19.07421875" style="50" customWidth="1"/>
-    <col min="14083" max="14083" width="17.53515625" style="50" customWidth="1"/>
-    <col min="14084" max="14084" width="9.84375" style="50" customWidth="1"/>
-    <col min="14085" max="14085" width="15.07421875" style="50" customWidth="1"/>
-    <col min="14086" max="14086" width="13.23046875" style="50" customWidth="1"/>
-    <col min="14087" max="14087" width="11.84375" style="50" customWidth="1"/>
-    <col min="14088" max="14088" width="6.3046875" style="50" customWidth="1"/>
+    <col min="14081" max="14081" width="14.08984375" style="50" customWidth="1"/>
+    <col min="14082" max="14082" width="19.08984375" style="50" customWidth="1"/>
+    <col min="14083" max="14083" width="17.54296875" style="50" customWidth="1"/>
+    <col min="14084" max="14084" width="9.81640625" style="50" customWidth="1"/>
+    <col min="14085" max="14085" width="15.08984375" style="50" customWidth="1"/>
+    <col min="14086" max="14086" width="13.26953125" style="50" customWidth="1"/>
+    <col min="14087" max="14087" width="11.81640625" style="50" customWidth="1"/>
+    <col min="14088" max="14088" width="6.26953125" style="50" customWidth="1"/>
     <col min="14089" max="14336" width="9" style="50"/>
-    <col min="14337" max="14337" width="14.07421875" style="50" customWidth="1"/>
-    <col min="14338" max="14338" width="19.07421875" style="50" customWidth="1"/>
-    <col min="14339" max="14339" width="17.53515625" style="50" customWidth="1"/>
-    <col min="14340" max="14340" width="9.84375" style="50" customWidth="1"/>
-    <col min="14341" max="14341" width="15.07421875" style="50" customWidth="1"/>
-    <col min="14342" max="14342" width="13.23046875" style="50" customWidth="1"/>
-    <col min="14343" max="14343" width="11.84375" style="50" customWidth="1"/>
-    <col min="14344" max="14344" width="6.3046875" style="50" customWidth="1"/>
+    <col min="14337" max="14337" width="14.08984375" style="50" customWidth="1"/>
+    <col min="14338" max="14338" width="19.08984375" style="50" customWidth="1"/>
+    <col min="14339" max="14339" width="17.54296875" style="50" customWidth="1"/>
+    <col min="14340" max="14340" width="9.81640625" style="50" customWidth="1"/>
+    <col min="14341" max="14341" width="15.08984375" style="50" customWidth="1"/>
+    <col min="14342" max="14342" width="13.26953125" style="50" customWidth="1"/>
+    <col min="14343" max="14343" width="11.81640625" style="50" customWidth="1"/>
+    <col min="14344" max="14344" width="6.26953125" style="50" customWidth="1"/>
     <col min="14345" max="14592" width="9" style="50"/>
-    <col min="14593" max="14593" width="14.07421875" style="50" customWidth="1"/>
-    <col min="14594" max="14594" width="19.07421875" style="50" customWidth="1"/>
-    <col min="14595" max="14595" width="17.53515625" style="50" customWidth="1"/>
-    <col min="14596" max="14596" width="9.84375" style="50" customWidth="1"/>
-    <col min="14597" max="14597" width="15.07421875" style="50" customWidth="1"/>
-    <col min="14598" max="14598" width="13.23046875" style="50" customWidth="1"/>
-    <col min="14599" max="14599" width="11.84375" style="50" customWidth="1"/>
-    <col min="14600" max="14600" width="6.3046875" style="50" customWidth="1"/>
+    <col min="14593" max="14593" width="14.08984375" style="50" customWidth="1"/>
+    <col min="14594" max="14594" width="19.08984375" style="50" customWidth="1"/>
+    <col min="14595" max="14595" width="17.54296875" style="50" customWidth="1"/>
+    <col min="14596" max="14596" width="9.81640625" style="50" customWidth="1"/>
+    <col min="14597" max="14597" width="15.08984375" style="50" customWidth="1"/>
+    <col min="14598" max="14598" width="13.26953125" style="50" customWidth="1"/>
+    <col min="14599" max="14599" width="11.81640625" style="50" customWidth="1"/>
+    <col min="14600" max="14600" width="6.26953125" style="50" customWidth="1"/>
     <col min="14601" max="14848" width="9" style="50"/>
-    <col min="14849" max="14849" width="14.07421875" style="50" customWidth="1"/>
-    <col min="14850" max="14850" width="19.07421875" style="50" customWidth="1"/>
-    <col min="14851" max="14851" width="17.53515625" style="50" customWidth="1"/>
-    <col min="14852" max="14852" width="9.84375" style="50" customWidth="1"/>
-    <col min="14853" max="14853" width="15.07421875" style="50" customWidth="1"/>
-    <col min="14854" max="14854" width="13.23046875" style="50" customWidth="1"/>
-    <col min="14855" max="14855" width="11.84375" style="50" customWidth="1"/>
-    <col min="14856" max="14856" width="6.3046875" style="50" customWidth="1"/>
+    <col min="14849" max="14849" width="14.08984375" style="50" customWidth="1"/>
+    <col min="14850" max="14850" width="19.08984375" style="50" customWidth="1"/>
+    <col min="14851" max="14851" width="17.54296875" style="50" customWidth="1"/>
+    <col min="14852" max="14852" width="9.81640625" style="50" customWidth="1"/>
+    <col min="14853" max="14853" width="15.08984375" style="50" customWidth="1"/>
+    <col min="14854" max="14854" width="13.26953125" style="50" customWidth="1"/>
+    <col min="14855" max="14855" width="11.81640625" style="50" customWidth="1"/>
+    <col min="14856" max="14856" width="6.26953125" style="50" customWidth="1"/>
     <col min="14857" max="15104" width="9" style="50"/>
-    <col min="15105" max="15105" width="14.07421875" style="50" customWidth="1"/>
-    <col min="15106" max="15106" width="19.07421875" style="50" customWidth="1"/>
-    <col min="15107" max="15107" width="17.53515625" style="50" customWidth="1"/>
-    <col min="15108" max="15108" width="9.84375" style="50" customWidth="1"/>
-    <col min="15109" max="15109" width="15.07421875" style="50" customWidth="1"/>
-    <col min="15110" max="15110" width="13.23046875" style="50" customWidth="1"/>
-    <col min="15111" max="15111" width="11.84375" style="50" customWidth="1"/>
-    <col min="15112" max="15112" width="6.3046875" style="50" customWidth="1"/>
+    <col min="15105" max="15105" width="14.08984375" style="50" customWidth="1"/>
+    <col min="15106" max="15106" width="19.08984375" style="50" customWidth="1"/>
+    <col min="15107" max="15107" width="17.54296875" style="50" customWidth="1"/>
+    <col min="15108" max="15108" width="9.81640625" style="50" customWidth="1"/>
+    <col min="15109" max="15109" width="15.08984375" style="50" customWidth="1"/>
+    <col min="15110" max="15110" width="13.26953125" style="50" customWidth="1"/>
+    <col min="15111" max="15111" width="11.81640625" style="50" customWidth="1"/>
+    <col min="15112" max="15112" width="6.26953125" style="50" customWidth="1"/>
     <col min="15113" max="15360" width="9" style="50"/>
-    <col min="15361" max="15361" width="14.07421875" style="50" customWidth="1"/>
-    <col min="15362" max="15362" width="19.07421875" style="50" customWidth="1"/>
-    <col min="15363" max="15363" width="17.53515625" style="50" customWidth="1"/>
-    <col min="15364" max="15364" width="9.84375" style="50" customWidth="1"/>
-    <col min="15365" max="15365" width="15.07421875" style="50" customWidth="1"/>
-    <col min="15366" max="15366" width="13.23046875" style="50" customWidth="1"/>
-    <col min="15367" max="15367" width="11.84375" style="50" customWidth="1"/>
-    <col min="15368" max="15368" width="6.3046875" style="50" customWidth="1"/>
+    <col min="15361" max="15361" width="14.08984375" style="50" customWidth="1"/>
+    <col min="15362" max="15362" width="19.08984375" style="50" customWidth="1"/>
+    <col min="15363" max="15363" width="17.54296875" style="50" customWidth="1"/>
+    <col min="15364" max="15364" width="9.81640625" style="50" customWidth="1"/>
+    <col min="15365" max="15365" width="15.08984375" style="50" customWidth="1"/>
+    <col min="15366" max="15366" width="13.26953125" style="50" customWidth="1"/>
+    <col min="15367" max="15367" width="11.81640625" style="50" customWidth="1"/>
+    <col min="15368" max="15368" width="6.26953125" style="50" customWidth="1"/>
     <col min="15369" max="15616" width="9" style="50"/>
-    <col min="15617" max="15617" width="14.07421875" style="50" customWidth="1"/>
-    <col min="15618" max="15618" width="19.07421875" style="50" customWidth="1"/>
-    <col min="15619" max="15619" width="17.53515625" style="50" customWidth="1"/>
-    <col min="15620" max="15620" width="9.84375" style="50" customWidth="1"/>
-    <col min="15621" max="15621" width="15.07421875" style="50" customWidth="1"/>
-    <col min="15622" max="15622" width="13.23046875" style="50" customWidth="1"/>
-    <col min="15623" max="15623" width="11.84375" style="50" customWidth="1"/>
-    <col min="15624" max="15624" width="6.3046875" style="50" customWidth="1"/>
+    <col min="15617" max="15617" width="14.08984375" style="50" customWidth="1"/>
+    <col min="15618" max="15618" width="19.08984375" style="50" customWidth="1"/>
+    <col min="15619" max="15619" width="17.54296875" style="50" customWidth="1"/>
+    <col min="15620" max="15620" width="9.81640625" style="50" customWidth="1"/>
+    <col min="15621" max="15621" width="15.08984375" style="50" customWidth="1"/>
+    <col min="15622" max="15622" width="13.26953125" style="50" customWidth="1"/>
+    <col min="15623" max="15623" width="11.81640625" style="50" customWidth="1"/>
+    <col min="15624" max="15624" width="6.26953125" style="50" customWidth="1"/>
     <col min="15625" max="15872" width="9" style="50"/>
-    <col min="15873" max="15873" width="14.07421875" style="50" customWidth="1"/>
-    <col min="15874" max="15874" width="19.07421875" style="50" customWidth="1"/>
-    <col min="15875" max="15875" width="17.53515625" style="50" customWidth="1"/>
-    <col min="15876" max="15876" width="9.84375" style="50" customWidth="1"/>
-    <col min="15877" max="15877" width="15.07421875" style="50" customWidth="1"/>
-    <col min="15878" max="15878" width="13.23046875" style="50" customWidth="1"/>
-    <col min="15879" max="15879" width="11.84375" style="50" customWidth="1"/>
-    <col min="15880" max="15880" width="6.3046875" style="50" customWidth="1"/>
+    <col min="15873" max="15873" width="14.08984375" style="50" customWidth="1"/>
+    <col min="15874" max="15874" width="19.08984375" style="50" customWidth="1"/>
+    <col min="15875" max="15875" width="17.54296875" style="50" customWidth="1"/>
+    <col min="15876" max="15876" width="9.81640625" style="50" customWidth="1"/>
+    <col min="15877" max="15877" width="15.08984375" style="50" customWidth="1"/>
+    <col min="15878" max="15878" width="13.26953125" style="50" customWidth="1"/>
+    <col min="15879" max="15879" width="11.81640625" style="50" customWidth="1"/>
+    <col min="15880" max="15880" width="6.26953125" style="50" customWidth="1"/>
     <col min="15881" max="16128" width="9" style="50"/>
-    <col min="16129" max="16129" width="14.07421875" style="50" customWidth="1"/>
-    <col min="16130" max="16130" width="19.07421875" style="50" customWidth="1"/>
-    <col min="16131" max="16131" width="17.53515625" style="50" customWidth="1"/>
-    <col min="16132" max="16132" width="9.84375" style="50" customWidth="1"/>
-    <col min="16133" max="16133" width="15.07421875" style="50" customWidth="1"/>
-    <col min="16134" max="16134" width="13.23046875" style="50" customWidth="1"/>
-    <col min="16135" max="16135" width="11.84375" style="50" customWidth="1"/>
-    <col min="16136" max="16136" width="6.3046875" style="50" customWidth="1"/>
+    <col min="16129" max="16129" width="14.08984375" style="50" customWidth="1"/>
+    <col min="16130" max="16130" width="19.08984375" style="50" customWidth="1"/>
+    <col min="16131" max="16131" width="17.54296875" style="50" customWidth="1"/>
+    <col min="16132" max="16132" width="9.81640625" style="50" customWidth="1"/>
+    <col min="16133" max="16133" width="15.08984375" style="50" customWidth="1"/>
+    <col min="16134" max="16134" width="13.26953125" style="50" customWidth="1"/>
+    <col min="16135" max="16135" width="11.81640625" style="50" customWidth="1"/>
+    <col min="16136" max="16136" width="6.26953125" style="50" customWidth="1"/>
     <col min="16137" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
@@ -2950,7 +2962,7 @@
       <c r="F17" s="91"/>
       <c r="G17" s="92"/>
     </row>
-    <row r="18" spans="1:7" ht="43.1" customHeight="1">
+    <row r="18" spans="1:7" ht="43.15" customHeight="1">
       <c r="A18" s="93" t="s">
         <v>116</v>
       </c>
@@ -3029,17 +3041,17 @@
       <selection activeCell="N15" sqref="N15:N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="14.07421875" customWidth="1"/>
-    <col min="6" max="6" width="11.84375"/>
-    <col min="7" max="8" width="10.765625" customWidth="1"/>
-    <col min="12" max="12" width="10.765625" customWidth="1"/>
-    <col min="13" max="13" width="11.84375" customWidth="1"/>
-    <col min="14" max="14" width="10.765625" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625"/>
+    <col min="7" max="8" width="10.7265625" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="22.75">
+    <row r="1" spans="1:14" ht="23">
       <c r="A1" s="118" t="s">
         <v>55</v>
       </c>
@@ -3958,7 +3970,7 @@
       </c>
       <c r="N21" s="113"/>
     </row>
-    <row r="22" spans="1:14" ht="28.3">
+    <row r="22" spans="1:14" ht="28">
       <c r="A22" s="126"/>
       <c r="B22" s="115" t="s">
         <v>57</v>
